--- a/ch4-spreadsheets/res/review_start.xlsx
+++ b/ch4-spreadsheets/res/review_start.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\computer-apps-primer\ch4-spreadsheets\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\libraries\Documents\GitHub\computer-apps-primer\ch4-spreadsheets\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -156,9 +156,6 @@
     <t>AVERAGE</t>
   </si>
   <si>
-    <t>MEAN</t>
-  </si>
-  <si>
     <t>MEDIAN</t>
   </si>
   <si>
@@ -191,11 +188,17 @@
       <t>function</t>
     </r>
   </si>
+  <si>
+    <t>MODE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,6 +253,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri Light"/>
@@ -305,14 +316,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -591,46 +594,50 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="5" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="5" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
@@ -955,7 +962,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:C45"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +987,7 @@
     </row>
     <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -1059,8 +1066,8 @@
       <c r="G15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="13">
-        <v>1.83</v>
+      <c r="H15" s="33">
+        <v>7.2499999999999995E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1073,7 +1080,7 @@
       <c r="D16" s="14">
         <v>7.99</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="34"/>
       <c r="G16" s="13" t="s">
         <v>24</v>
       </c>
@@ -1091,7 +1098,7 @@
       <c r="D17" s="13">
         <v>3.99</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
@@ -1103,7 +1110,7 @@
       <c r="D18" s="13">
         <v>4.5</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
@@ -1115,7 +1122,7 @@
       <c r="D19" s="13">
         <v>3.75</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
@@ -1127,31 +1134,31 @@
       <c r="D20" s="13">
         <v>4.99</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="15"/>
+      <c r="E24" s="36"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -1163,7 +1170,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1282,27 +1289,27 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="4"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
